--- a/Example/BBAPainterDemo/readme/money.xlsx
+++ b/Example/BBAPainterDemo/readme/money.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ningliujie/Desktop/work/BBAPainterDemo/Example/BBAPainterDemo/readme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{061C57BD-0C5D-7C47-8677-4F8530133C22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A64D21-ACB4-464A-A8B3-898A37C8183E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="1040" windowWidth="28100" windowHeight="17440" xr2:uid="{0E300CF1-E5BD-B64B-B59F-FF91356CEA74}"/>
+    <workbookView minimized="1" xWindow="4500" yWindow="1960" windowWidth="28100" windowHeight="17440" xr2:uid="{0E300CF1-E5BD-B64B-B59F-FF91356CEA74}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>现价</t>
-    <rPh sb="0" eb="35">
+    <rPh sb="0" eb="2">
       <t>jia'ge</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +43,14 @@
   </si>
   <si>
     <t>买入股票</t>
-    <rPh sb="0" eb="21">
+    <rPh sb="0" eb="4">
       <t>gu'piao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现价</t>
-    <rPh sb="0" eb="63">
+    <rPh sb="0" eb="2">
       <t>zhi'qina</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
